--- a/Data/division_choice/250/cell2name.xlsx
+++ b/Data/division_choice/250/cell2name.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98EB644B-7D06-45A5-A4E5-AF66A0C26228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="275">
   <si>
     <t>חומת שמואל ובית צפאפא</t>
   </si>
@@ -303,9 +304,6 @@
     <t>שעב וטל אל</t>
   </si>
   <si>
-    <t>מ.א משנה</t>
-  </si>
-  <si>
     <t>ראמה וסאג'ור</t>
   </si>
   <si>
@@ -772,17 +770,95 @@
   </si>
   <si>
     <t>cell_name</t>
+  </si>
+  <si>
+    <t>30_county</t>
+  </si>
+  <si>
+    <t>11_haredi</t>
+  </si>
+  <si>
+    <t>11_betshemesh</t>
+  </si>
+  <si>
+    <t>31_jewish</t>
+  </si>
+  <si>
+    <t>32_jewish</t>
+  </si>
+  <si>
+    <t>23_arab</t>
+  </si>
+  <si>
+    <t>23_jewish</t>
+  </si>
+  <si>
+    <t>24_jewish</t>
+  </si>
+  <si>
+    <t>32_arab</t>
+  </si>
+  <si>
+    <t>22_jewish</t>
+  </si>
+  <si>
+    <t>24_arab</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22_arab</t>
+  </si>
+  <si>
+    <t>31_arab</t>
+  </si>
+  <si>
+    <t>מ.א מנשה</t>
+  </si>
+  <si>
+    <t>42_secular</t>
+  </si>
+  <si>
+    <t>41_jewish</t>
+  </si>
+  <si>
+    <t>42_haredi</t>
+  </si>
+  <si>
+    <t>41_arab</t>
+  </si>
+  <si>
+    <t>42_arab</t>
+  </si>
+  <si>
+    <t>51_tlv</t>
+  </si>
+  <si>
+    <t>51_bb</t>
+  </si>
+  <si>
+    <t>62_jewish</t>
+  </si>
+  <si>
+    <t>62_arab</t>
+  </si>
+  <si>
+    <t>71_haredi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -790,6 +866,20 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -824,17 +914,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{211AF986-F11F-4F6C-8888-C236F333C303}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{9147BC85-5DF2-4C60-BDDA-0E0CCC82778F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4E3BAF11-1F19-48C4-8381-B0BF8A098E4D}"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{A33D15E7-40BB-4A7B-B9E6-28CCD2D11E7E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1111,2027 +1215,2781 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2000002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2000004</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2000005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2000006</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2000007</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2000008</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2000009</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2000010</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2000011</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2000012</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2000013</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2000014</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2000015</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2000016</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2000017</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2000018</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2000019</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2000020</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2000021</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2000022</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2000023</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2000024</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2000025</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2000026</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2000027</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2000028</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2000029</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2000030</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2000031</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2000032</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2000033</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2000034</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2000035</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2000036</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2000037</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2000038</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2000039</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2000040</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2000041</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2000042</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2000043</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2000044</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2000045</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2000046</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2000047</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2000048</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2000049</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2000050</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2000051</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2000052</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2000053</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2000054</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2000055</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2000056</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2000057</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2000058</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2000059</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2000060</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2000061</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2000062</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2000063</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2000064</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2000065</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2000066</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2000067</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2000068</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2000069</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2000070</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2000071</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2000072</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2000073</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2000074</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2000075</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2000076</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2000077</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2000078</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2000079</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2000080</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2000081</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2000082</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2000083</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2000084</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2000085</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2000086</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2000087</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2000088</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2000089</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2000090</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2000091</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2000092</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2000093</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2000094</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2000095</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="C96" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2000096</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2000097</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2000098</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2000099</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2000100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2000101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="C102">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2000102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2000103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="C104">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2000104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="C105">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2000105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="C106">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2000106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2000107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2000108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2000109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2000110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2000111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2000112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2000113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="C114" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2000114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2000115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2000116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2000117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="C118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2000118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="C119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2000119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="C120" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2000120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="C121" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2000121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="C122" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2000122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2000123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="C124">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2000124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2000125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="C126">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2000126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="C127" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2000127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2000128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2000129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2000130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="C131">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2000131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="C132">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2000132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="C133">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2000133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="C134">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2000134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="C135">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2000135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="C136">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2000136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2000137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="C138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2000138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="C139" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2000139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="C140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2000140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="C141" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2000141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="C142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2000142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="C143">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2000143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="C144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2000144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="C145">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2000145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="C146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2000146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="C147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2000147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2000148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="C149" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2000149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="C150" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2000150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="C151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2000151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="C152">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2000152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="C153">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2000153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="C154">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2000154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="C155" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2000155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2000156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="C157" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2000157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2000158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="C159">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2000159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2000160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="C161" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2000161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="C162">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2000162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2000163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="C164">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2000164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2000165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="C166" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2000166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="C167" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2000167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="C168" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2000168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2000169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="C170" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2000170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2000171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2000172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2000173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="C174" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2000174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="C175" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2000175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="C176" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2000176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2000177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="C178">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2000178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2000179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="C180" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2000180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="C181" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2000181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="C182" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2000182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2000183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="C184">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2000184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="C185">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2000185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="C186">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2000186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="C187">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2000187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="C188">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2000188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="C189">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2000189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="C190">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2000190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="C191">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2000191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="C192">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2000192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="C193">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2000193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="C194">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2000194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="C195">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2000195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="C196">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2000196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="C197">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2000197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="C198">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2000198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="C199">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2000199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="C200">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2000200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="C201">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2000201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="C202">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2000202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="C203">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2000203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="C204">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2000204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="C205">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2000205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="C206">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2000206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="C207">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2000207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="C208">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2000208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C209">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2000209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="C210">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2000210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="C211">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2000211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="C212">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2000212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="C213">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2000213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="C214">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2000214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="C215">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2000215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="C216">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2000216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="C217">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2000217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="C218">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2000218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="C219">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2000219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="C220">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2000220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="C221">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2000221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="C222" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2000222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="C223" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2000223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="C224" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2000224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="C225" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2000225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="C226" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2000226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C227" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2000227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="C228" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2000228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="C229" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2000229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="C230" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2000230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="C231" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2000231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C232" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>2000232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="C233" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>2000233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="C234" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>2000234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="C235" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>2000235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="C236" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>2000236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="C237" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>2000237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="C238" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2000238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="C239" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>2000239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="C240" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>2000240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="C241" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>2000241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="C242" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>2000242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="C243" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>2000243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="C244">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>2000244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="C245">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>2000245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="C246">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>2000246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="C247">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>2000247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="C248">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>2000248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="C249">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>2000249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="C250">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>2000250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="C251">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>